--- a/format_import_siswa.xlsx
+++ b/format_import_siswa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id_user</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -401,7 +407,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,8 +469,14 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/format_import_siswa.xlsx
+++ b/format_import_siswa.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>id_user</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>username</t>
   </si>
@@ -28,9 +25,6 @@
     <t>nama_siswa</t>
   </si>
   <si>
-    <t>foto_siswa</t>
-  </si>
-  <si>
     <t>kelas</t>
   </si>
   <si>
@@ -50,18 +44,6 @@
   </si>
   <si>
     <t>kota</t>
-  </si>
-  <si>
-    <t>id_level</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>SW</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -404,20 +386,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -427,24 +410,24 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -453,30 +436,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
